--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\External Projects\DND projects-20221029T104227Z-001\DND projects\DND Projects\001_CMSG_MaterialHealthv5\001_CMSG_MaterialHealth\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My_love\Documents\GitHub\DND_MaterialHealth\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7044B47A-02CD-4DCC-91BA-8A19A38FA135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2254B-FB02-4B49-9023-C91632C2E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Data\input_Headers.xlsx</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>Status,Mat_Hlth_Cat,Mat_Hlt_Sub-Cat,Mat_Hlth_Sub-Sub_Cat,Tranche_1?,Storage_Location_Group,Last_Demand_Year,Assigned_Year,Line_Value,Price,Blocked,Quality_Inspection,Lead_EPM,Mark_As_Hazmat,Storage_Medium,Size_factor,Storage_Bin,Count,Cubic_Metres,25_CFSD_Bin_Structure,Transit_Bin,Robot_Message,Sheet</t>
+  </si>
+  <si>
+    <t>25 CFSD Mat Hlth</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -453,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -658,7 +667,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -867,7 +876,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -930,7 +939,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1913,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2044,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My_love\Documents\GitHub\DND_MaterialHealth\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C2254B-FB02-4B49-9023-C91632C2E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B843FFA-6C76-4758-A586-9B1B2A6C0DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>MaterialHealthQueue</t>
-  </si>
-  <si>
-    <t>Data\Input\7 CFSD Mat Hlth Sample Input.csv</t>
   </si>
   <si>
     <t>botworkingfolder_Path</t>
@@ -667,7 +664,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -873,10 +870,10 @@
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>1000</v>
@@ -906,10 +903,10 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -917,7 +914,7 @@
         <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>1000</v>
@@ -925,26 +922,26 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2060,7 +2057,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My_love\Documents\GitHub\DND_MaterialHealth\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B843FFA-6C76-4758-A586-9B1B2A6C0DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A4D3A6-4931-4F34-ACE7-BE9BA5AAEDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -270,10 +270,10 @@
     <t>filename</t>
   </si>
   <si>
-    <t>Status,Mat_Hlth_Cat,Mat_Hlt_Sub-Cat,Mat_Hlth_Sub-Sub_Cat,Tranche_1?,Storage_Location_Group,Last_Demand_Year,Assigned_Year,Line_Value,Price,Blocked,Quality_Inspection,Lead_EPM,Mark_As_Hazmat,Storage_Medium,Size_factor,Storage_Bin,Count,Cubic_Metres,25_CFSD_Bin_Structure,Transit_Bin,Robot_Message,Sheet</t>
-  </si>
-  <si>
     <t>25 CFSD Mat Hlth</t>
+  </si>
+  <si>
+    <t>Status,Mat_Hlth_Cat,Mat_Hlt_Sub_Cat,Mat_Hlth_Sub_Sub_Cat,Tranche_1?,Storage_Location_Group,Last_Demand_Year,Assigned_Year,Line_Value,Price,Blocked,Quality_Inspection,Lead_EPM,Mark_As_Hazmat,Storage_Medium,Size_factor,Storage_Bin,Count,Cubic_Metres,25_CFSD_Bin_Structure,Transit_Bin,Robot_Message,Sheet</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -941,7 +941,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1926,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z975"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2057,7 +2057,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>57</v>
